--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -845,27 +845,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -901,7 +901,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -923,7 +923,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
@@ -947,7 +947,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
@@ -971,7 +971,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
@@ -993,7 +993,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1253,14 +1253,14 @@
         <v>28</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
@@ -1275,14 +1275,14 @@
         <v>28</v>
       </c>
       <c r="F19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
@@ -1297,14 +1297,14 @@
         <v>28</v>
       </c>
       <c r="F20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
@@ -1319,14 +1319,14 @@
         <v>28</v>
       </c>
       <c r="F21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
@@ -1341,14 +1341,14 @@
         <v>28</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
@@ -1363,14 +1363,14 @@
         <v>28</v>
       </c>
       <c r="F23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
@@ -1425,7 +1425,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F25">
+  <conditionalFormatting sqref="F6 F3 F8:F25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1498,18 +1498,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>Year</t>
   </si>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - 
+Ornamental leaf</t>
   </si>
 </sst>
 </file>
@@ -441,9 +445,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -849,44 +853,44 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -896,520 +900,560 @@
       <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="str">
+      <c r="G4" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="9" t="str">
         <f t="shared" ref="G14:G25" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="str">
+      <c r="G18" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="str">
+      <c r="G19" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="str">
+      <c r="G20" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="23" t="s">
+      <c r="C21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="10" t="str">
+      <c r="G21" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="10" t="str">
+      <c r="G22" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="23" t="s">
+      <c r="C23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="10" t="str">
+      <c r="G23" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="23" t="s">
+      <c r="C24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>1</v>
       </c>
-      <c r="G24" s="10" t="str">
+      <c r="G24" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G25" s="10" t="str">
+      <c r="G25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1425,7 +1469,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3 F8:F25">
+  <conditionalFormatting sqref="F3 F6 F8:F25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1502,87 +1546,87 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -492,6 +492,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,9 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -853,33 +853,33 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
@@ -888,9 +888,9 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -905,14 +905,14 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -929,7 +929,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
@@ -953,7 +953,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
@@ -977,14 +977,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -1001,7 +1001,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -1025,14 +1025,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -1074,14 +1074,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -1091,21 +1091,21 @@
         <v>26</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="21" t="s">
@@ -1122,14 +1122,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -1146,14 +1146,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -1170,14 +1170,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -1194,14 +1194,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1218,14 +1218,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -1242,14 +1242,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -1266,14 +1266,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1290,14 +1290,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -1314,14 +1314,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1338,14 +1338,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -1362,14 +1362,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1386,14 +1386,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -1410,14 +1410,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -1434,14 +1434,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -1469,7 +1469,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F25">
+  <conditionalFormatting sqref="F6 F3 F8:F25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1546,14 +1546,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
   <si>
     <t>Year</t>
   </si>
@@ -227,6 +227,12 @@
   <si>
     <t>Obv: With mint symbol - 
 Ornamental leaf</t>
+  </si>
+  <si>
+    <t>25th Centenary of the Battle of Thermopylae</t>
+  </si>
+  <si>
+    <t>100th anniversary of the union of Thrace with Greece</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -576,9 +590,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -847,29 +861,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -888,7 +902,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -905,7 +919,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -929,7 +943,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
@@ -953,7 +967,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
@@ -977,7 +991,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -1025,7 +1039,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1050,7 +1064,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1074,7 +1088,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1098,7 +1112,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1170,7 +1184,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1194,7 +1208,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
@@ -1410,7 +1424,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -1434,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
@@ -1455,6 +1469,50 @@
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <f t="shared" ref="G26:G27" si="2">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1465,12 +1523,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F6 F8:F25">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3 F8:F25">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="F3 F6 F8:F25">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1482,11 +1540,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1498,12 +1573,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F7">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1515,12 +1590,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F26:F27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1546,14 +1621,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1575,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1586,7 +1661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1597,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1608,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1619,7 +1694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD4F1D-6A0F-4C4C-9E05-CE2C8D60DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>Year</t>
   </si>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,17 +518,9 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -536,6 +529,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -583,16 +584,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -860,30 +861,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -902,7 +903,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -919,7 +920,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -943,7 +944,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
@@ -967,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
@@ -991,7 +992,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1064,7 +1065,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2020</v>
       </c>
@@ -1485,7 +1486,9 @@
       <c r="D26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="F26" s="8">
         <v>0</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2020</v>
       </c>
@@ -1507,7 +1510,9 @@
       <c r="D27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="F27" s="8">
         <v>0</v>
       </c>
@@ -1527,7 +1532,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F25">
+  <conditionalFormatting sqref="F6 F3 F8:F25">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1591,7 +1596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1614,21 +1619,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1661,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1707,12 +1712,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Greece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD4F1D-6A0F-4C4C-9E05-CE2C8D60DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACA1D7-4D38-4211-B1B6-CC73E05C587E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -234,6 +243,30 @@
   </si>
   <si>
     <t>100th anniversary of the union of Thrace with Greece</t>
+  </si>
+  <si>
+    <t>Greek Revolution</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>First Greek Constitution</t>
+  </si>
+  <si>
+    <t>Constantin Carathéodory</t>
+  </si>
+  <si>
+    <t>Maria Callas</t>
+  </si>
+  <si>
+    <t>Penelope Delta</t>
+  </si>
+  <si>
+    <t>Restoration of Democracy in Greece</t>
+  </si>
+  <si>
+    <t>1.500.000</t>
   </si>
 </sst>
 </file>
@@ -520,7 +553,63 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -591,9 +680,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -862,29 +951,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -903,7 +992,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -920,7 +1009,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
@@ -944,7 +1033,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
@@ -968,7 +1057,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
@@ -992,7 +1081,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
@@ -1009,14 +1098,14 @@
         <v>23</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -1040,7 +1129,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1057,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1065,7 +1154,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1089,7 +1178,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1113,7 +1202,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1130,14 +1219,14 @@
         <v>26</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
@@ -1161,7 +1250,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1185,7 +1274,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1209,7 +1298,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1233,7 +1322,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1257,7 +1346,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1274,14 +1363,14 @@
         <v>28</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1305,7 +1394,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2016</v>
       </c>
@@ -1329,7 +1418,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2017</v>
       </c>
@@ -1353,7 +1442,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
@@ -1377,7 +1466,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
@@ -1401,7 +1490,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2018</v>
       </c>
@@ -1425,7 +1514,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -1449,7 +1538,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
@@ -1473,7 +1562,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>2020</v>
       </c>
@@ -1497,7 +1586,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2020</v>
       </c>
@@ -1514,10 +1603,174 @@
         <v>28</v>
       </c>
       <c r="F27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f t="shared" ref="G28" si="3">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" ref="G29:G30" si="4">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" ref="G31:G32" si="5">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f t="shared" ref="G33:G34" si="6">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1528,11 +1781,113 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F6 F8:F25">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3 F8:F25">
+  <conditionalFormatting sqref="F3 F6 F8:F25">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1544,12 +1899,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1561,12 +1933,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1578,12 +1950,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1595,12 +1967,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1623,17 +1995,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +2016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1655,7 +2027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1666,7 +2038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1677,7 +2049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1688,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1699,7 +2071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Greece/#EURO#Greece#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACA1D7-4D38-4211-B1B6-CC73E05C587E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B787C75-EB7A-4945-AAAC-F7FDE49E1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>1.500.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -555,6 +555,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -609,15 +618,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -680,9 +680,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -957,7 +957,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -978,17 +978,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -996,16 +996,16 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1014,16 +1014,16 @@
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1062,19 +1062,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1086,16 +1086,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -1110,19 +1110,19 @@
         <v>2008</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1134,16 +1134,16 @@
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1159,16 +1159,16 @@
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -1207,16 +1207,16 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1231,16 +1231,16 @@
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1255,16 +1255,16 @@
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1279,16 +1279,16 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -1327,16 +1327,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1351,16 +1351,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
@@ -1375,16 +1375,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
@@ -1399,16 +1399,16 @@
         <v>2016</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -1423,16 +1423,16 @@
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="8">
         <v>1</v>
@@ -1447,16 +1447,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="8">
         <v>1</v>
@@ -1471,16 +1471,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
@@ -1495,16 +1495,16 @@
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="8">
         <v>1</v>
@@ -1519,16 +1519,16 @@
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="8">
         <v>1</v>
@@ -1543,16 +1543,16 @@
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="8">
         <v>1</v>
@@ -1567,16 +1567,16 @@
         <v>2020</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
@@ -1591,16 +1591,16 @@
         <v>2020</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
@@ -1615,16 +1615,16 @@
         <v>2021</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
@@ -1639,16 +1639,16 @@
         <v>2022</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>2022</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>2023</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>2023</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1735,13 +1735,13 @@
         <v>2024</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="8">
@@ -1757,13 +1757,13 @@
         <v>2024</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="8">
@@ -1785,7 +1785,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F25">
+  <conditionalFormatting sqref="F6 F3 F8:F25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1866,7 +1866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1883,7 +1883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1900,7 +1900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1917,7 +1917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1934,7 +1934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1951,7 +1951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1968,7 +1968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2007,13 +2007,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2021,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2032,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2043,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2054,10 +2054,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2065,10 +2065,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2076,10 +2076,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
